--- a/IIT-04-05/03 Funciones de Búsqueda.xlsx
+++ b/IIT-04-05/03 Funciones de Búsqueda.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="14940" windowHeight="8145"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="14940" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones de Búsquedas" sheetId="5" r:id="rId1"/>
@@ -16,13 +16,20 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Alumnos!$A$2:$H$172</definedName>
+    <definedName name="ALUMNOS">Alumnos!$A$2:$H$172</definedName>
+    <definedName name="CATEGORIA">Categoría!$B$4:$C$6</definedName>
+    <definedName name="CONDICIOBN">Condición!$C$3:$E$5</definedName>
+    <definedName name="CONDICION">Condición!$C$3:$E$5</definedName>
+    <definedName name="DIAS">'01'!$H$5:$I$11</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="numeros">'01'!$H$5:$H$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="372">
   <si>
     <t>Apellidos</t>
   </si>
@@ -1243,6 +1250,9 @@
   <si>
     <t>PROGRAMACIÓN DE CURSOS</t>
   </si>
+  <si>
+    <t>Utilizo BuscarV porque los datos están en columnas</t>
+  </si>
 </sst>
 </file>
 
@@ -1255,7 +1265,7 @@
     <numFmt numFmtId="166" formatCode="_(&quot;S/.&quot;\ * #,##0.00_);_(&quot;S/.&quot;\ * \(#,##0.00\);_(&quot;S/.&quot;\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1490,6 +1500,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2050,7 +2067,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2358,6 +2375,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -3279,7 +3299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3422,7 +3442,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3438,6 +3458,9 @@
       <c r="B2" s="92" t="s">
         <v>370</v>
       </c>
+      <c r="H2" s="104" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90" t="s">
@@ -3463,7 +3486,10 @@
       <c r="C5" s="86">
         <v>5</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="85" t="str">
+        <f>VLOOKUP(C5,DIAS,2,TRUE)</f>
+        <v>Viernes</v>
+      </c>
       <c r="H5" s="87">
         <v>1</v>
       </c>
@@ -3478,7 +3504,10 @@
       <c r="C6" s="86">
         <v>1</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="85" t="str">
+        <f>VLOOKUP(C6,DIAS,2,FALSE)</f>
+        <v>Lunes</v>
+      </c>
       <c r="H6" s="87">
         <v>2</v>
       </c>
@@ -3493,7 +3522,10 @@
       <c r="C7" s="86">
         <v>7</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="85" t="str">
+        <f>VLOOKUP(C7,DIAS,2,FALSE)</f>
+        <v>Domingo</v>
+      </c>
       <c r="H7" s="87">
         <v>3</v>
       </c>
@@ -3508,7 +3540,10 @@
       <c r="C8" s="86">
         <v>6</v>
       </c>
-      <c r="D8" s="85"/>
+      <c r="D8" s="85" t="str">
+        <f>VLOOKUP(C8,DIAS,2,FALSE)</f>
+        <v>Sábado</v>
+      </c>
       <c r="H8" s="87">
         <v>4</v>
       </c>
@@ -3523,7 +3558,10 @@
       <c r="C9" s="86">
         <v>2</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="85" t="str">
+        <f>VLOOKUP(C9,DIAS,2,FALSE)</f>
+        <v>Martes</v>
+      </c>
       <c r="H9" s="87">
         <v>5</v>
       </c>
@@ -3538,7 +3576,10 @@
       <c r="C10" s="86">
         <v>4</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="85" t="str">
+        <f>VLOOKUP(C10,DIAS,2,FALSE)</f>
+        <v>Jueves</v>
+      </c>
       <c r="H10" s="87">
         <v>6</v>
       </c>
@@ -3553,7 +3594,10 @@
       <c r="C11" s="86">
         <v>2</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="85" t="str">
+        <f>VLOOKUP(C11,DIAS,2,FALSE)</f>
+        <v>Martes</v>
+      </c>
       <c r="H11" s="88">
         <v>7</v>
       </c>
@@ -3568,10 +3612,14 @@
       <c r="C12" s="86">
         <v>5</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="85" t="str">
+        <f>VLOOKUP(C12,DIAS,2,FALSE)</f>
+        <v>Viernes</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3579,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3668,13 +3716,16 @@
         <v>326</v>
       </c>
       <c r="E6" s="40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="96"/>
+      <c r="H6" s="96" t="str">
+        <f>VLOOKUP(E6,ALUMNOS,2,FALSE)</f>
+        <v>SALAZAR NEYRA</v>
+      </c>
       <c r="I6" s="25"/>
       <c r="J6" s="22"/>
     </row>
@@ -3695,12 +3746,18 @@
       <c r="D8" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="96" t="str">
+        <f>VLOOKUP(E6,ALUMNOS,3,FALSE)</f>
+        <v>JUAN EMANUEL</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="96"/>
+      <c r="H8" s="96">
+        <f>VLOOKUP(E6,ALUMNOS,7,FALSE)</f>
+        <v>18</v>
+      </c>
       <c r="I8" s="29"/>
       <c r="J8" s="22"/>
     </row>
@@ -3756,12 +3813,18 @@
       <c r="D13" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="96" t="str">
+        <f>VLOOKUP(E6,ALUMNOS,8,FALSE)</f>
+        <v>A</v>
+      </c>
       <c r="F13" s="30"/>
       <c r="G13" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="H13" s="97"/>
+      <c r="H13" s="97" t="str">
+        <f>HLOOKUP(E13,CONDICIOBN,2,FALSE)</f>
+        <v>Becado</v>
+      </c>
       <c r="I13" s="25"/>
       <c r="J13" s="22"/>
     </row>
@@ -3777,12 +3840,18 @@
       <c r="D15" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="95">
+        <f>HLOOKUP(E13,CONDICIOBN,3,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="H15" s="97"/>
+      <c r="H15" s="97" t="str">
+        <f>VLOOKUP(H8,CATEGORIA,2,TRUE)</f>
+        <v>Quinto Superior</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="22"/>
     </row>
@@ -3857,7 +3926,7 @@
   <dimension ref="A2:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8408,7 +8477,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B4" sqref="B4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/IIT-04-05/03 Funciones de Búsqueda.xlsx
+++ b/IIT-04-05/03 Funciones de Búsqueda.xlsx
@@ -2358,6 +2358,9 @@
     <xf numFmtId="0" fontId="35" fillId="24" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2375,9 +2378,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -3392,38 +3392,38 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
     </row>
   </sheetData>
   <sheetProtection password="E4E1" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3458,7 +3458,7 @@
       <c r="B2" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="98" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="85" t="str">
-        <f>VLOOKUP(C6,DIAS,2,FALSE)</f>
+        <f t="shared" ref="D6:D12" si="0">VLOOKUP(C6,DIAS,2,FALSE)</f>
         <v>Lunes</v>
       </c>
       <c r="H6" s="87">
@@ -3523,7 +3523,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="85" t="str">
-        <f>VLOOKUP(C7,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Domingo</v>
       </c>
       <c r="H7" s="87">
@@ -3541,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="85" t="str">
-        <f>VLOOKUP(C8,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Sábado</v>
       </c>
       <c r="H8" s="87">
@@ -3559,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="85" t="str">
-        <f>VLOOKUP(C9,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Martes</v>
       </c>
       <c r="H9" s="87">
@@ -3577,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="85" t="str">
-        <f>VLOOKUP(C10,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Jueves</v>
       </c>
       <c r="H10" s="87">
@@ -3595,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="85" t="str">
-        <f>VLOOKUP(C11,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Martes</v>
       </c>
       <c r="H11" s="88">
@@ -3613,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="85" t="str">
-        <f>VLOOKUP(C12,DIAS,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Viernes</v>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3662,17 +3662,17 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -3716,15 +3716,15 @@
         <v>326</v>
       </c>
       <c r="E6" s="40">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="28" t="s">
         <v>312</v>
       </c>
       <c r="H6" s="96" t="str">
-        <f>VLOOKUP(E6,ALUMNOS,2,FALSE)</f>
-        <v>SALAZAR NEYRA</v>
+        <f>IFERROR(VLOOKUP(E6,ALUMNOS,2,FALSE),"")</f>
+        <v>NINAHUANCA RICALDI</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="22"/>
@@ -3747,16 +3747,16 @@
         <v>322</v>
       </c>
       <c r="E8" s="96" t="str">
-        <f>VLOOKUP(E6,ALUMNOS,3,FALSE)</f>
-        <v>JUAN EMANUEL</v>
+        <f>IFERROR(VLOOKUP(E6,ALUMNOS,3,FALSE),"")</f>
+        <v>HARLESS HANSET</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="28" t="s">
         <v>313</v>
       </c>
       <c r="H8" s="96">
-        <f>VLOOKUP(E6,ALUMNOS,7,FALSE)</f>
-        <v>18</v>
+        <f>IFERROR(VLOOKUP(E6,ALUMNOS,7,FALSE),"")</f>
+        <v>20</v>
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="22"/>
@@ -3814,7 +3814,7 @@
         <v>328</v>
       </c>
       <c r="E13" s="96" t="str">
-        <f>VLOOKUP(E6,ALUMNOS,8,FALSE)</f>
+        <f>IFERROR(VLOOKUP(E6,ALUMNOS,8,FALSE),"")</f>
         <v>A</v>
       </c>
       <c r="F13" s="30"/>
@@ -3822,7 +3822,7 @@
         <v>349</v>
       </c>
       <c r="H13" s="97" t="str">
-        <f>HLOOKUP(E13,CONDICIOBN,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(E13,CONDICIOBN,2,FALSE),"")</f>
         <v>Becado</v>
       </c>
       <c r="I13" s="25"/>
@@ -3841,7 +3841,7 @@
         <v>344</v>
       </c>
       <c r="E15" s="95">
-        <f>HLOOKUP(E13,CONDICIOBN,3,FALSE)</f>
+        <f>IFERROR(HLOOKUP(E13,CONDICIOBN,3,FALSE),"")</f>
         <v>0</v>
       </c>
       <c r="F15" s="24"/>
@@ -3849,8 +3849,8 @@
         <v>350</v>
       </c>
       <c r="H15" s="97" t="str">
-        <f>VLOOKUP(H8,CATEGORIA,2,TRUE)</f>
-        <v>Quinto Superior</v>
+        <f>IFERROR(VLOOKUP(H8,CATEGORIA,2,TRUE),"")</f>
+        <v>Décimo Superior</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="22"/>
@@ -3918,6 +3918,18 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Alumnos!$A$3:$A$172</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3925,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8398,7 +8410,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8413,11 +8425,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="93" t="s">
@@ -8477,7 +8489,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8492,10 +8504,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="C2" s="103"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
